--- a/model/Squoids_data/Squoids floor builder 20180106.xlsx
+++ b/model/Squoids_data/Squoids floor builder 20180106.xlsx
@@ -35,7 +35,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">Tiles!$C$1:$C$65</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2252,18 +2251,32 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="92">
+  <dxfs count="50">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC000"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2306,314 +2319,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5677,12 +5382,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y26">
-    <cfRule type="expression" dxfId="91" priority="2">
+    <cfRule type="expression" dxfId="49" priority="2">
       <formula>AND(COLUMN()&lt;=$B$27,ROW()&lt;=$B$28)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z26">
-    <cfRule type="cellIs" dxfId="90" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7410,12 +7115,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="63" priority="2">
+    <cfRule type="expression" dxfId="21" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="62" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9143,22 +8848,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="61" priority="4">
+    <cfRule type="expression" dxfId="19" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="60" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="59" priority="2">
+    <cfRule type="expression" dxfId="17" priority="2">
       <formula>AND(COLUMN()&lt;=$B$27,ROW()&lt;=$B$28)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="58" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10886,12 +10591,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="57" priority="2">
+    <cfRule type="expression" dxfId="15" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="56" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12619,12 +12324,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="55" priority="2">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="54" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14350,12 +14055,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="53" priority="2">
+    <cfRule type="expression" dxfId="11" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="52" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14534,7 +14239,7 @@
         <v xml:space="preserve">~~~~~~~~~~~~~~~~~~~ </v>
       </c>
       <c r="AB2" t="str">
-        <f t="shared" ref="AB2:AB25" si="1">"'"&amp;AA2&amp;"',"</f>
+        <f t="shared" ref="AB2:AB20" si="1">"'"&amp;AA2&amp;"',"</f>
         <v>'~~~~~~~~~~~~~~~~~~~ ',</v>
       </c>
     </row>
@@ -16203,12 +15908,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="47" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="46" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16222,7 +15927,7 @@
   <dimension ref="A1:AB30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16387,7 +16092,7 @@
         <v xml:space="preserve">                    </v>
       </c>
       <c r="AB2" t="str">
-        <f t="shared" ref="AB2:AB25" si="1">"'"&amp;AA2&amp;"',"</f>
+        <f t="shared" ref="AB2:AB20" si="1">"'"&amp;AA2&amp;"',"</f>
         <v>'                    ',</v>
       </c>
     </row>
@@ -16554,7 +16259,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>5</v>
@@ -16563,13 +16268,13 @@
         <v>6</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>13</v>
+        <v>258</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>61</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>258</v>
+        <v>12</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>6</v>
@@ -16621,11 +16326,11 @@
       </c>
       <c r="AA5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">+#+ (*\             </v>
+        <v xml:space="preserve">+H+ \*)             </v>
       </c>
       <c r="AB5" t="str">
         <f t="shared" si="1"/>
-        <v>'+#+ (*\             ',</v>
+        <v>'+H+ \*)             ',</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
@@ -17052,7 +16757,7 @@
         <v>5</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="K11" s="12" t="s">
         <v>5</v>
@@ -17095,11 +16800,11 @@
       </c>
       <c r="AA11" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        +#+  *** ***</v>
+        <v xml:space="preserve">        +H+  *** ***</v>
       </c>
       <c r="AB11" t="str">
         <f t="shared" si="1"/>
-        <v>'        +#+  *** ***',</v>
+        <v>'        +H+  *** ***',</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
@@ -17474,7 +17179,7 @@
         <v>61</v>
       </c>
       <c r="S16" s="12" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="T16" s="12" t="s">
         <v>61</v>
@@ -17490,11 +17195,11 @@
       </c>
       <c r="AA16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        (*\  (*\ ***</v>
+        <v xml:space="preserve">        (*\  (*\ *+*</v>
       </c>
       <c r="AB16" t="str">
         <f t="shared" si="1"/>
-        <v>'        (*\  (*\ ***',</v>
+        <v>'        (*\  (*\ *+*',</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
@@ -18056,12 +17761,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="45" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="44" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18240,7 +17945,7 @@
         <v xml:space="preserve">                    </v>
       </c>
       <c r="AB2" t="str">
-        <f t="shared" ref="AB2:AB25" si="1">"'"&amp;AA2&amp;"',"</f>
+        <f t="shared" ref="AB2:AB20" si="1">"'"&amp;AA2&amp;"',"</f>
         <v>'                    ',</v>
       </c>
     </row>
@@ -19909,12 +19614,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="35" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="34" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22328,22 +22033,22 @@
     <sortCondition ref="B2:B67"/>
   </sortState>
   <conditionalFormatting sqref="D1:D31 D33:D1048576">
-    <cfRule type="cellIs" dxfId="51" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K31 K33:K77">
-    <cfRule type="cellIs" dxfId="50" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="49" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32">
-    <cfRule type="cellIs" dxfId="48" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22522,7 +22227,7 @@
         <v xml:space="preserve">                    </v>
       </c>
       <c r="AB2" t="str">
-        <f t="shared" ref="AB2:AB25" si="1">"'"&amp;AA2&amp;"',"</f>
+        <f t="shared" ref="AB2:AB20" si="1">"'"&amp;AA2&amp;"',"</f>
         <v>'                    ',</v>
       </c>
     </row>
@@ -24191,12 +23896,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="89" priority="2">
+    <cfRule type="expression" dxfId="47" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="88" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25924,22 +25629,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="87" priority="4">
+    <cfRule type="expression" dxfId="45" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="86" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="85" priority="2">
+    <cfRule type="expression" dxfId="43" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="84" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27665,22 +27370,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20 A19">
-    <cfRule type="expression" dxfId="83" priority="4">
+    <cfRule type="expression" dxfId="41" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20 A19">
-    <cfRule type="cellIs" dxfId="82" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20 A1:T2 A3:A18 B3:T20">
-    <cfRule type="expression" dxfId="81" priority="2">
+    <cfRule type="expression" dxfId="39" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20 A1:T2 A3:A18 B3:T20">
-    <cfRule type="cellIs" dxfId="80" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29412,22 +29117,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="79" priority="4">
+    <cfRule type="expression" dxfId="37" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="78" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="77" priority="2">
+    <cfRule type="expression" dxfId="35" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="76" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31155,22 +30860,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="75" priority="4">
+    <cfRule type="expression" dxfId="33" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="74" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="73" priority="2">
+    <cfRule type="expression" dxfId="31" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="72" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32898,22 +32603,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="71" priority="4">
+    <cfRule type="expression" dxfId="29" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="70" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="69" priority="2">
+    <cfRule type="expression" dxfId="27" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="68" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34641,12 +34346,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="67" priority="2">
+    <cfRule type="expression" dxfId="25" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="66" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36374,12 +36079,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="65" priority="2">
+    <cfRule type="expression" dxfId="23" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="64" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/model/Squoids_data/Squoids floor builder 20180106.xlsx
+++ b/model/Squoids_data/Squoids floor builder 20180106.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" firstSheet="8" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Reverser" sheetId="33" r:id="rId1"/>
@@ -29,10 +29,11 @@
     <sheet name="Floor3.0" sheetId="93" r:id="rId15"/>
     <sheet name="Floor3.1" sheetId="94" r:id="rId16"/>
     <sheet name="Floor3.2" sheetId="95" r:id="rId17"/>
-    <sheet name="Tiles" sheetId="56" r:id="rId18"/>
+    <sheet name="Floor3.3" sheetId="96" r:id="rId18"/>
+    <sheet name="Tiles" sheetId="56" r:id="rId19"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">Tiles!$C$1:$C$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">Tiles!$C$1:$C$65</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6740" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7144" uniqueCount="284">
   <si>
     <t>width</t>
   </si>
@@ -2251,11 +2252,88 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="50">
+  <dxfs count="60">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2283,14 +2361,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5382,12 +5453,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y26">
-    <cfRule type="expression" dxfId="49" priority="2">
+    <cfRule type="expression" dxfId="59" priority="2">
       <formula>AND(COLUMN()&lt;=$B$27,ROW()&lt;=$B$28)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z26">
-    <cfRule type="cellIs" dxfId="48" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7115,12 +7186,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="21" priority="2">
+    <cfRule type="expression" dxfId="31" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="20" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8848,22 +8919,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="19" priority="4">
+    <cfRule type="expression" dxfId="29" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="18" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="17" priority="2">
+    <cfRule type="expression" dxfId="27" priority="2">
       <formula>AND(COLUMN()&lt;=$B$27,ROW()&lt;=$B$28)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="16" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10591,12 +10662,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="15" priority="2">
+    <cfRule type="expression" dxfId="25" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10610,7 +10681,7 @@
   <dimension ref="A1:AB30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AA20" sqref="AA1:AA20"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12324,12 +12395,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="23" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12342,7 +12413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AA20" sqref="AA1:AA20"/>
     </sheetView>
   </sheetViews>
@@ -12914,7 +12985,7 @@
         <v>6</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="M8" s="12" t="s">
         <v>6</v>
@@ -12947,11 +13018,11 @@
       <c r="Y8" s="7"/>
       <c r="AA8" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">           !        </v>
       </c>
       <c r="AB8" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>'           !        ',</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
@@ -13217,7 +13288,7 @@
         <v>6</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="N12" s="12" t="s">
         <v>6</v>
@@ -13247,11 +13318,11 @@
       <c r="Y12" s="7"/>
       <c r="AA12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">#                   </v>
+        <v xml:space="preserve">#           !       </v>
       </c>
       <c r="AB12" t="str">
         <f t="shared" si="1"/>
-        <v>'#                   ',</v>
+        <v>'#           !       ',</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -14055,12 +14126,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="11" priority="2">
+    <cfRule type="expression" dxfId="21" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="10" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15621,7 +15692,7 @@
         <v>25</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>25</v>
+        <v>266</v>
       </c>
       <c r="M20" s="12" t="s">
         <v>25</v>
@@ -15658,11 +15729,11 @@
       </c>
       <c r="AA20" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  ~~~~~~~~~~~~~~~~  </v>
+        <v xml:space="preserve">  ~~~~~~~~~b~~~~~~  </v>
       </c>
       <c r="AB20" t="str">
         <f t="shared" si="1"/>
-        <v>'  ~~~~~~~~~~~~~~~~  ',</v>
+        <v>'  ~~~~~~~~~b~~~~~~  ',</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
@@ -15908,12 +15979,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="19" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15926,8 +15997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15943,7 +16014,7 @@
         <v>266</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>6</v>
@@ -16010,16 +16081,16 @@
       </c>
       <c r="AA1" t="str">
         <f>CONCATENATE(A1,B1,C1,D1,E1,F1,G1,H1,I1,J1,K1,L1,M1,N1,O1,P1,Q1,R1,S1,T1,U1,V1,W1,X1,Y1)</f>
-        <v xml:space="preserve">b                   </v>
+        <v xml:space="preserve">bw                  </v>
       </c>
       <c r="AB1" t="str">
         <f>"'"&amp;AA1&amp;"',"</f>
-        <v>'b                   ',</v>
+        <v>'bw                  ',</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>6</v>
@@ -16089,11 +16160,11 @@
       </c>
       <c r="AA2" t="str">
         <f t="shared" ref="AA2:AA25" si="0">CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2,R2,S2,T2,U2,V2,W2,X2,Y2)</f>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">w                   </v>
       </c>
       <c r="AB2" t="str">
         <f t="shared" ref="AB2:AB20" si="1">"'"&amp;AA2&amp;"',"</f>
-        <v>'                    ',</v>
+        <v>'w                   ',</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -16268,13 +16339,13 @@
         <v>6</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>258</v>
+        <v>30</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>61</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>6</v>
@@ -16326,11 +16397,11 @@
       </c>
       <c r="AA5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">+H+ \*)             </v>
+        <v xml:space="preserve">+H+ w*w             </v>
       </c>
       <c r="AB5" t="str">
         <f t="shared" si="1"/>
-        <v>'+H+ \*)             ',</v>
+        <v>'+H+ w*w             ',</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
@@ -16821,13 +16892,13 @@
         <v>6</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>61</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="H12" s="12" t="s">
         <v>6</v>
@@ -16879,11 +16950,11 @@
       </c>
       <c r="AA12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">(*\ ***             </v>
+        <v xml:space="preserve">(*\ w*w             </v>
       </c>
       <c r="AB12" t="str">
         <f t="shared" si="1"/>
-        <v>'(*\ ***             ',</v>
+        <v>'(*\ w*w             ',</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -17246,7 +17317,7 @@
         <v>6</v>
       </c>
       <c r="O17" s="12" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="P17" s="12" t="s">
         <v>6</v>
@@ -17274,11 +17345,11 @@
       </c>
       <c r="AA17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">*** ***             </v>
+        <v xml:space="preserve">*** ***       /     </v>
       </c>
       <c r="AB17" t="str">
         <f t="shared" si="1"/>
-        <v>'*** ***             ',</v>
+        <v>'*** ***       /     ',</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
@@ -17286,7 +17357,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>6</v>
@@ -17353,11 +17424,11 @@
       </c>
       <c r="AA18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve"> /                  </v>
       </c>
       <c r="AB18" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>' /                  ',</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
@@ -17471,13 +17542,13 @@
         <v>6</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>6</v>
+        <v>266</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="N20" s="12" t="s">
         <v>6</v>
@@ -17511,11 +17582,11 @@
       </c>
       <c r="AA20" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">          wbw       </v>
       </c>
       <c r="AB20" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>'          wbw       ',</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
@@ -17761,12 +17832,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="11" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19327,7 +19398,7 @@
         <v>6</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>6</v>
+        <v>266</v>
       </c>
       <c r="M20" s="12" t="s">
         <v>6</v>
@@ -19364,11 +19435,11 @@
       </c>
       <c r="AA20" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">           b        </v>
       </c>
       <c r="AB20" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>'           b        ',</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
@@ -19614,12 +19685,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="17" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19630,2439 +19701,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K77"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.5703125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="16"/>
-    <col min="4" max="4" width="9.140625" style="14"/>
-    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="H1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="15" t="b">
-        <f t="shared" ref="D2:D33" si="0">SUMPRODUCT(--(EXACT(C:C,C2)))&gt;1</f>
-        <v>0</v>
-      </c>
-      <c r="E2" t="str">
-        <f t="shared" ref="E2:E34" si="1">B2&amp;"='"&amp;C2&amp;"'"</f>
-        <v>BANG='$'</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="I2" t="str">
-        <f>TRIM(MID($H2,1,FIND("=",$H2)-1))</f>
-        <v>BANG</v>
-      </c>
-      <c r="J2" t="str">
-        <f>SUBSTITUTE(TRIM(MID($H2,FIND("=",$H2)+1,200)),"'","")</f>
-        <v>$</v>
-      </c>
-      <c r="K2" s="15" t="b">
-        <f t="shared" ref="K2:K33" si="2">SUMPRODUCT(--(EXACT(J:J,J2)))&gt;1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="15" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E3" t="str">
-        <f t="shared" si="1"/>
-        <v>BOMB='q'</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="I3" t="str">
-        <f t="shared" ref="I3:I67" si="3">TRIM(MID($H3,1,FIND("=",$H3)-1))</f>
-        <v>BOMB</v>
-      </c>
-      <c r="J3" t="str">
-        <f t="shared" ref="J3:J67" si="4">SUBSTITUTE(TRIM(MID($H3,FIND("=",$H3)+1,200)),"'","")</f>
-        <v>q</v>
-      </c>
-      <c r="K3" s="15" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="15" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E4" t="str">
-        <f t="shared" si="1"/>
-        <v>BOMB_LIT='Q'</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="I4" t="str">
-        <f t="shared" si="3"/>
-        <v>BOMB_LIT</v>
-      </c>
-      <c r="J4" t="str">
-        <f t="shared" si="4"/>
-        <v>Q</v>
-      </c>
-      <c r="K4" s="15" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D5" s="15" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E5" t="str">
-        <f t="shared" si="1"/>
-        <v>BOSS_DOOR='F'</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="I5" t="str">
-        <f t="shared" si="3"/>
-        <v>BOSS_DOOR</v>
-      </c>
-      <c r="J5" t="str">
-        <f t="shared" si="4"/>
-        <v>F</v>
-      </c>
-      <c r="K5" s="15" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>169</v>
-      </c>
-      <c r="C6" t="s">
-        <v>170</v>
-      </c>
-      <c r="D6" s="15" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E6" t="str">
-        <f t="shared" si="1"/>
-        <v>BOSS_DOOR_OPEN='f'</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="I6" t="str">
-        <f t="shared" si="3"/>
-        <v>BOSS_DOOR_OPEN</v>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" si="4"/>
-        <v>f</v>
-      </c>
-      <c r="K6" s="15" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>171</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="15" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E7" t="str">
-        <f t="shared" si="1"/>
-        <v>BRAZIER='B'</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="I7" t="str">
-        <f t="shared" si="3"/>
-        <v>BRAZIER</v>
-      </c>
-      <c r="J7" t="str">
-        <f t="shared" si="4"/>
-        <v>B</v>
-      </c>
-      <c r="K7" s="15" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>172</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="15" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E8" t="str">
-        <f t="shared" si="1"/>
-        <v>DECORATION1='z'</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="I8" t="str">
-        <f t="shared" si="3"/>
-        <v>DECORATION1</v>
-      </c>
-      <c r="J8" t="str">
-        <f t="shared" si="4"/>
-        <v>z</v>
-      </c>
-      <c r="K8" s="15" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>173</v>
-      </c>
-      <c r="C9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="15" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E9" t="str">
-        <f t="shared" si="1"/>
-        <v>DECORATION2='Z'</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="I9" t="str">
-        <f t="shared" si="3"/>
-        <v>DECORATION2</v>
-      </c>
-      <c r="J9" t="str">
-        <f t="shared" si="4"/>
-        <v>Z</v>
-      </c>
-      <c r="K9" s="15" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>174</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="15" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E10" t="str">
-        <f t="shared" si="1"/>
-        <v>DOOR='D'</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="I10" t="str">
-        <f t="shared" si="3"/>
-        <v>DOOR</v>
-      </c>
-      <c r="J10" t="str">
-        <f t="shared" si="4"/>
-        <v>D</v>
-      </c>
-      <c r="K10" s="15" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>175</v>
-      </c>
-      <c r="C11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="15" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E11" t="str">
-        <f t="shared" si="1"/>
-        <v>DOOR_OPEN='d'</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="I11" t="str">
-        <f t="shared" si="3"/>
-        <v>DOOR_OPEN</v>
-      </c>
-      <c r="J11" t="str">
-        <f t="shared" si="4"/>
-        <v>d</v>
-      </c>
-      <c r="K11" s="15" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>176</v>
-      </c>
-      <c r="C12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="15" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E12" t="str">
-        <f t="shared" si="1"/>
-        <v>DOT1='!'</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I12" t="str">
-        <f t="shared" si="3"/>
-        <v>DOT1</v>
-      </c>
-      <c r="J12" t="str">
-        <f t="shared" si="4"/>
-        <v>!</v>
-      </c>
-      <c r="K12" s="15" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>177</v>
-      </c>
-      <c r="C13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="15" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E13" t="str">
-        <f t="shared" si="1"/>
-        <v>DOT2='£'</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="I13" t="str">
-        <f t="shared" si="3"/>
-        <v>DOT2</v>
-      </c>
-      <c r="J13" t="str">
-        <f t="shared" si="4"/>
-        <v>£</v>
-      </c>
-      <c r="K13" s="15" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>178</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="15" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E14" t="str">
-        <f t="shared" si="1"/>
-        <v>DOWN='-'</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="I14" t="str">
-        <f t="shared" si="3"/>
-        <v>DOWN</v>
-      </c>
-      <c r="J14" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="K14" s="15" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>179</v>
-      </c>
-      <c r="C15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="15" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E15" t="str">
-        <f t="shared" si="1"/>
-        <v>EAST='E'</v>
-      </c>
-      <c r="H15" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="I15" t="str">
-        <f t="shared" si="3"/>
-        <v>EAST</v>
-      </c>
-      <c r="J15" t="str">
-        <f t="shared" si="4"/>
-        <v>E</v>
-      </c>
-      <c r="K15" s="15" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>180</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="15" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E16" t="str">
-        <f t="shared" si="1"/>
-        <v>EMPTY=' '</v>
-      </c>
-      <c r="H16" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="I16" t="str">
-        <f t="shared" si="3"/>
-        <v>EMPTY</v>
-      </c>
-      <c r="J16" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K16" s="15" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>181</v>
-      </c>
-      <c r="C17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="15" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E17" t="str">
-        <f t="shared" si="1"/>
-        <v>EXIT_KEY='%'</v>
-      </c>
-      <c r="H17" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="I17" t="str">
-        <f t="shared" si="3"/>
-        <v>EXIT_KEY</v>
-      </c>
-      <c r="J17" t="str">
-        <f t="shared" si="4"/>
-        <v>%</v>
-      </c>
-      <c r="K17" s="15" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>182</v>
-      </c>
-      <c r="C18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="15" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E18" t="str">
-        <f t="shared" si="1"/>
-        <v>HEART='HP'</v>
-      </c>
-      <c r="H18" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="I18" t="str">
-        <f t="shared" si="3"/>
-        <v>HEART</v>
-      </c>
-      <c r="J18" t="str">
-        <f t="shared" si="4"/>
-        <v>HP</v>
-      </c>
-      <c r="K18" s="15" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>183</v>
-      </c>
-      <c r="C19" t="s">
-        <v>184</v>
-      </c>
-      <c r="D19" s="15" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E19" t="str">
-        <f t="shared" si="1"/>
-        <v>REPLENISH='"H"'</v>
-      </c>
-      <c r="H19" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="I19" t="str">
-        <f t="shared" si="3"/>
-        <v>REPLENISH</v>
-      </c>
-      <c r="J19" t="str">
-        <f t="shared" si="4"/>
-        <v>"H"</v>
-      </c>
-      <c r="K19" s="15" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>185</v>
-      </c>
-      <c r="C20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="15" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E20" t="str">
-        <f t="shared" si="1"/>
-        <v>KEY='?'</v>
-      </c>
-      <c r="H20" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="I20" t="str">
-        <f t="shared" si="3"/>
-        <v>KEY</v>
-      </c>
-      <c r="J20" t="str">
-        <f t="shared" si="4"/>
-        <v>?</v>
-      </c>
-      <c r="K20" s="15" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>186</v>
-      </c>
-      <c r="C21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="15" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E21" t="str">
-        <f t="shared" si="1"/>
-        <v>MAP='M'</v>
-      </c>
-      <c r="H21" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="I21" t="str">
-        <f t="shared" si="3"/>
-        <v>MAP</v>
-      </c>
-      <c r="J21" t="str">
-        <f t="shared" si="4"/>
-        <v>M</v>
-      </c>
-      <c r="K21" s="15" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>187</v>
-      </c>
-      <c r="C22" t="s">
-        <v>188</v>
-      </c>
-      <c r="D22" s="15" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E22" t="str">
-        <f t="shared" si="1"/>
-        <v>MONSTER1='1'</v>
-      </c>
-      <c r="H22" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="I22" t="str">
-        <f t="shared" si="3"/>
-        <v>MONSTER1</v>
-      </c>
-      <c r="J22" t="str">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="K22" s="15" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>189</v>
-      </c>
-      <c r="C23" t="s">
-        <v>190</v>
-      </c>
-      <c r="D23" s="15" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E23" t="str">
-        <f t="shared" si="1"/>
-        <v>MONSTER2='2'</v>
-      </c>
-      <c r="H23" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="I23" t="str">
-        <f t="shared" si="3"/>
-        <v>MONSTER2</v>
-      </c>
-      <c r="J23" t="str">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="K23" s="15" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>191</v>
-      </c>
-      <c r="C24" t="s">
-        <v>192</v>
-      </c>
-      <c r="D24" s="15" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E24" t="str">
-        <f t="shared" si="1"/>
-        <v>MONSTER3='3'</v>
-      </c>
-      <c r="H24" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="I24" t="str">
-        <f t="shared" si="3"/>
-        <v>MONSTER3</v>
-      </c>
-      <c r="J24" t="str">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="K24" s="15" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>193</v>
-      </c>
-      <c r="C25" t="s">
-        <v>194</v>
-      </c>
-      <c r="D25" s="15" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E25" t="str">
-        <f t="shared" si="1"/>
-        <v>BOSS='4'</v>
-      </c>
-      <c r="H25" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="I25" t="str">
-        <f t="shared" si="3"/>
-        <v>BOSS</v>
-      </c>
-      <c r="J25" t="str">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="K25" s="15" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>195</v>
-      </c>
-      <c r="C26" t="s">
-        <v>196</v>
-      </c>
-      <c r="D26" s="15" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E26" t="str">
-        <f t="shared" si="1"/>
-        <v>BOSS_KEY='K'</v>
-      </c>
-      <c r="H26" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="I26" t="str">
-        <f t="shared" si="3"/>
-        <v>BOSS_KEY</v>
-      </c>
-      <c r="J26" t="str">
-        <f t="shared" si="4"/>
-        <v>K</v>
-      </c>
-      <c r="K26" s="15" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>197</v>
-      </c>
-      <c r="C27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="15" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E27" t="str">
-        <f t="shared" si="1"/>
-        <v>NEXT_LEVEL='L'</v>
-      </c>
-      <c r="H27" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="I27" t="str">
-        <f t="shared" si="3"/>
-        <v>NEXT_LEVEL</v>
-      </c>
-      <c r="J27" t="str">
-        <f t="shared" si="4"/>
-        <v>L</v>
-      </c>
-      <c r="K27" s="15" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>198</v>
-      </c>
-      <c r="C28" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="15" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E28" t="str">
-        <f t="shared" si="1"/>
-        <v>NORTH='N'</v>
-      </c>
-      <c r="H28" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="I28" t="str">
-        <f t="shared" si="3"/>
-        <v>NORTH</v>
-      </c>
-      <c r="J28" t="str">
-        <f t="shared" si="4"/>
-        <v>N</v>
-      </c>
-      <c r="K28" s="15" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>199</v>
-      </c>
-      <c r="C29" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="15" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E29" t="str">
-        <f t="shared" si="1"/>
-        <v>PLAYER='P'</v>
-      </c>
-      <c r="H29" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="I29" t="str">
-        <f t="shared" si="3"/>
-        <v>PLAYER</v>
-      </c>
-      <c r="J29" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
-      </c>
-      <c r="K29" s="15" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>200</v>
-      </c>
-      <c r="C30" t="s">
-        <v>201</v>
-      </c>
-      <c r="D30" s="15" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E30" t="str">
-        <f t="shared" si="1"/>
-        <v>PLAYER_ARMOUR='p'</v>
-      </c>
-      <c r="H30" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="I30" t="str">
-        <f t="shared" si="3"/>
-        <v>PLAYER_ARMOUR</v>
-      </c>
-      <c r="J30" t="str">
-        <f t="shared" si="4"/>
-        <v>p</v>
-      </c>
-      <c r="K30" s="15" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>202</v>
-      </c>
-      <c r="C31" t="s">
-        <v>203</v>
-      </c>
-      <c r="D31" s="15" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E31" t="str">
-        <f t="shared" si="1"/>
-        <v>PLAYER_GOLD='g'</v>
-      </c>
-      <c r="H31" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="I31" t="str">
-        <f t="shared" si="3"/>
-        <v>PLAYER_GOLD</v>
-      </c>
-      <c r="J31" t="str">
-        <f t="shared" si="4"/>
-        <v>g</v>
-      </c>
-      <c r="K31" s="15" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>254</v>
-      </c>
-      <c r="C32" t="s">
-        <v>253</v>
-      </c>
-      <c r="D32" s="15" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E32" t="str">
-        <f>B32&amp;"='"&amp;C32&amp;"'"</f>
-        <v>PLAYER_THIEF='a'</v>
-      </c>
-      <c r="H32" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="I32" t="str">
-        <f t="shared" si="3"/>
-        <v>PLAYER_GOLD</v>
-      </c>
-      <c r="J32" t="str">
-        <f t="shared" si="4"/>
-        <v>g</v>
-      </c>
-      <c r="K32" s="15" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>204</v>
-      </c>
-      <c r="C33" t="s">
-        <v>205</v>
-      </c>
-      <c r="D33" s="15" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E33" t="str">
-        <f t="shared" si="1"/>
-        <v>PLAYER_SPIKE='A'</v>
-      </c>
-      <c r="H33" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="I33" t="str">
-        <f t="shared" si="3"/>
-        <v>PLAYER_SPIKE</v>
-      </c>
-      <c r="J33" t="str">
-        <f t="shared" si="4"/>
-        <v>A</v>
-      </c>
-      <c r="K33" s="15" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>206</v>
-      </c>
-      <c r="C34" t="s">
-        <v>207</v>
-      </c>
-      <c r="D34" s="15" t="b">
-        <f t="shared" ref="D34:D65" si="5">SUMPRODUCT(--(EXACT(C:C,C34)))&gt;1</f>
-        <v>0</v>
-      </c>
-      <c r="E34" t="str">
-        <f t="shared" si="1"/>
-        <v>NPC1='Y'</v>
-      </c>
-      <c r="H34" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="I34" t="str">
-        <f t="shared" si="3"/>
-        <v>NPC1</v>
-      </c>
-      <c r="J34" t="str">
-        <f t="shared" si="4"/>
-        <v>Y</v>
-      </c>
-      <c r="K34" s="15" t="b">
-        <f t="shared" ref="K34:K65" si="6">SUMPRODUCT(--(EXACT(J:J,J34)))&gt;1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>208</v>
-      </c>
-      <c r="C35" t="s">
-        <v>209</v>
-      </c>
-      <c r="D35" s="15" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E35" t="str">
-        <f t="shared" ref="E35:E65" si="7">B35&amp;"='"&amp;C35&amp;"'"</f>
-        <v>NPC2='y'</v>
-      </c>
-      <c r="H35" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="I35" t="str">
-        <f t="shared" si="3"/>
-        <v>NPC2</v>
-      </c>
-      <c r="J35" t="str">
-        <f t="shared" si="4"/>
-        <v>y</v>
-      </c>
-      <c r="K35" s="15" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>210</v>
-      </c>
-      <c r="C36" t="s">
-        <v>28</v>
-      </c>
-      <c r="D36" s="15" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E36" t="str">
-        <f t="shared" si="7"/>
-        <v>PREVIOUS_LEVEL='l'</v>
-      </c>
-      <c r="H36" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="I36" t="str">
-        <f t="shared" si="3"/>
-        <v>PREVIOUS_LEVEL</v>
-      </c>
-      <c r="J36" t="str">
-        <f t="shared" si="4"/>
-        <v>l</v>
-      </c>
-      <c r="K36" s="15" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>211</v>
-      </c>
-      <c r="C37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D37" s="15" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E37" t="str">
-        <f t="shared" si="7"/>
-        <v>RED_POTION='R'</v>
-      </c>
-      <c r="H37" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="I37" t="str">
-        <f t="shared" si="3"/>
-        <v>RED_POTION</v>
-      </c>
-      <c r="J37" t="str">
-        <f t="shared" si="4"/>
-        <v>R</v>
-      </c>
-      <c r="K37" s="15" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>212</v>
-      </c>
-      <c r="C38" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="15" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E38" t="str">
-        <f t="shared" si="7"/>
-        <v>RUNE='u'</v>
-      </c>
-      <c r="H38" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="I38" t="str">
-        <f t="shared" si="3"/>
-        <v>RUNE</v>
-      </c>
-      <c r="J38" t="str">
-        <f t="shared" si="4"/>
-        <v>u</v>
-      </c>
-      <c r="K38" s="15" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>213</v>
-      </c>
-      <c r="C39" t="s">
-        <v>49</v>
-      </c>
-      <c r="D39" s="15" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E39" t="str">
-        <f t="shared" si="7"/>
-        <v>RUNE1='R1'</v>
-      </c>
-      <c r="H39" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="I39" t="str">
-        <f t="shared" si="3"/>
-        <v>RUNE1</v>
-      </c>
-      <c r="J39" t="str">
-        <f t="shared" si="4"/>
-        <v>R1</v>
-      </c>
-      <c r="K39" s="15" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>214</v>
-      </c>
-      <c r="C40" t="s">
-        <v>50</v>
-      </c>
-      <c r="D40" s="15" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E40" t="str">
-        <f t="shared" si="7"/>
-        <v>RUNE2='R2'</v>
-      </c>
-      <c r="H40" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="I40" t="str">
-        <f t="shared" si="3"/>
-        <v>RUNE2</v>
-      </c>
-      <c r="J40" t="str">
-        <f t="shared" si="4"/>
-        <v>R2</v>
-      </c>
-      <c r="K40" s="15" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>215</v>
-      </c>
-      <c r="C41" t="s">
-        <v>51</v>
-      </c>
-      <c r="D41" s="15" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E41" t="str">
-        <f t="shared" si="7"/>
-        <v>RUNE3='R3'</v>
-      </c>
-      <c r="H41" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="I41" t="str">
-        <f t="shared" si="3"/>
-        <v>RUNE3</v>
-      </c>
-      <c r="J41" t="str">
-        <f t="shared" si="4"/>
-        <v>R3</v>
-      </c>
-      <c r="K41" s="15" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>216</v>
-      </c>
-      <c r="C42" t="s">
-        <v>52</v>
-      </c>
-      <c r="D42" s="15" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E42" t="str">
-        <f t="shared" si="7"/>
-        <v>RUNE4='R4'</v>
-      </c>
-      <c r="H42" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="I42" t="str">
-        <f t="shared" si="3"/>
-        <v>RUNE4</v>
-      </c>
-      <c r="J42" t="str">
-        <f t="shared" si="4"/>
-        <v>R4</v>
-      </c>
-      <c r="K42" s="15" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>217</v>
-      </c>
-      <c r="C43" t="s">
-        <v>53</v>
-      </c>
-      <c r="D43" s="15" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E43" t="str">
-        <f t="shared" si="7"/>
-        <v>RUNE5='R5'</v>
-      </c>
-      <c r="H43" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="I43" t="str">
-        <f t="shared" si="3"/>
-        <v>RUNE5</v>
-      </c>
-      <c r="J43" t="str">
-        <f t="shared" si="4"/>
-        <v>R5</v>
-      </c>
-      <c r="K43" s="15" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>218</v>
-      </c>
-      <c r="C44" t="s">
-        <v>219</v>
-      </c>
-      <c r="D44" s="15" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E44" t="str">
-        <f t="shared" si="7"/>
-        <v>SAFETY='8'</v>
-      </c>
-      <c r="H44" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="I44" t="str">
-        <f t="shared" si="3"/>
-        <v>SAFETY</v>
-      </c>
-      <c r="J44" t="str">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="K44" s="15" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>220</v>
-      </c>
-      <c r="C45" t="s">
-        <v>54</v>
-      </c>
-      <c r="D45" s="15" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E45" t="str">
-        <f t="shared" si="7"/>
-        <v>SECRET_TREASURE='J'</v>
-      </c>
-      <c r="H45" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="I45" t="str">
-        <f t="shared" si="3"/>
-        <v>SECRET_TREASURE</v>
-      </c>
-      <c r="J45" t="str">
-        <f t="shared" si="4"/>
-        <v>J</v>
-      </c>
-      <c r="K45" s="15" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>221</v>
-      </c>
-      <c r="C46" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" s="15" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E46" t="str">
-        <f t="shared" si="7"/>
-        <v>SECRET_WALL=';'</v>
-      </c>
-      <c r="H46" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="I46" t="str">
-        <f t="shared" si="3"/>
-        <v>SECRET_WALL</v>
-      </c>
-      <c r="J46" t="str">
-        <f t="shared" si="4"/>
-        <v>;</v>
-      </c>
-      <c r="K46" s="15" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>222</v>
-      </c>
-      <c r="C47" t="s">
-        <v>27</v>
-      </c>
-      <c r="D47" s="15" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E47" t="str">
-        <f t="shared" si="7"/>
-        <v>SHIELD='O'</v>
-      </c>
-      <c r="H47" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="I47" t="str">
-        <f t="shared" si="3"/>
-        <v>SHIELD</v>
-      </c>
-      <c r="J47" t="str">
-        <f t="shared" si="4"/>
-        <v>O</v>
-      </c>
-      <c r="K47" s="15" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>55</v>
-      </c>
-      <c r="C48" t="s">
-        <v>20</v>
-      </c>
-      <c r="D48" s="15" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E48" t="str">
-        <f t="shared" si="7"/>
-        <v>SHOP='s'</v>
-      </c>
-      <c r="H48" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="I48" t="str">
-        <f t="shared" si="3"/>
-        <v>SHOP</v>
-      </c>
-      <c r="J48" t="str">
-        <f t="shared" si="4"/>
-        <v>s</v>
-      </c>
-      <c r="K48" s="15" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>223</v>
-      </c>
-      <c r="C49" t="s">
-        <v>55</v>
-      </c>
-      <c r="D49" s="15" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E49" t="str">
-        <f t="shared" si="7"/>
-        <v>SHOP_KEEPER='SHOP'</v>
-      </c>
-      <c r="H49" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="I49" t="str">
-        <f t="shared" si="3"/>
-        <v>SHOP_KEEPER</v>
-      </c>
-      <c r="J49" t="str">
-        <f t="shared" si="4"/>
-        <v>SHOP</v>
-      </c>
-      <c r="K49" s="15" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>224</v>
-      </c>
-      <c r="C50" t="s">
-        <v>17</v>
-      </c>
-      <c r="D50" s="15" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E50" t="str">
-        <f t="shared" si="7"/>
-        <v>SOUTH='S'</v>
-      </c>
-      <c r="H50" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="I50" t="str">
-        <f t="shared" si="3"/>
-        <v>SOUTH</v>
-      </c>
-      <c r="J50" t="str">
-        <f t="shared" si="4"/>
-        <v>S</v>
-      </c>
-      <c r="K50" s="15" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>225</v>
-      </c>
-      <c r="C51" t="s">
-        <v>18</v>
-      </c>
-      <c r="D51" s="15" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E51" t="str">
-        <f t="shared" si="7"/>
-        <v>START_POSITION='='</v>
-      </c>
-      <c r="H51" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="I51" t="str">
-        <f t="shared" si="3"/>
-        <v>START_POSITION</v>
-      </c>
-      <c r="J51" t="str">
-        <f t="shared" si="4"/>
-        <v>=</v>
-      </c>
-      <c r="K51" s="15" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>226</v>
-      </c>
-      <c r="C52" t="s">
-        <v>56</v>
-      </c>
-      <c r="D52" s="15" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E52" t="str">
-        <f t="shared" si="7"/>
-        <v>SWITCH=','</v>
-      </c>
-      <c r="H52" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="I52" t="str">
-        <f t="shared" si="3"/>
-        <v>SWITCH</v>
-      </c>
-      <c r="J52" t="str">
-        <f t="shared" si="4"/>
-        <v>,</v>
-      </c>
-      <c r="K52" s="15" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>227</v>
-      </c>
-      <c r="C53" t="s">
-        <v>57</v>
-      </c>
-      <c r="D53" s="15" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E53" t="str">
-        <f t="shared" si="7"/>
-        <v>SWITCH_LIT='&lt;'</v>
-      </c>
-      <c r="H53" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="I53" t="str">
-        <f t="shared" si="3"/>
-        <v>SWITCH_LIT</v>
-      </c>
-      <c r="J53" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;</v>
-      </c>
-      <c r="K53" s="15" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>228</v>
-      </c>
-      <c r="C54" t="s">
-        <v>58</v>
-      </c>
-      <c r="D54" s="15" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E54" t="str">
-        <f t="shared" si="7"/>
-        <v>SWITCH_TILE='_'</v>
-      </c>
-      <c r="H54" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="I54" t="str">
-        <f t="shared" si="3"/>
-        <v>SWITCH_TILE</v>
-      </c>
-      <c r="J54" t="str">
-        <f t="shared" si="4"/>
-        <v>_</v>
-      </c>
-      <c r="K54" s="15" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>229</v>
-      </c>
-      <c r="C55" t="s">
-        <v>129</v>
-      </c>
-      <c r="D55" s="15" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E55" t="str">
-        <f t="shared" si="7"/>
-        <v>TILE1='`'</v>
-      </c>
-      <c r="H55" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="I55" t="str">
-        <f t="shared" si="3"/>
-        <v>TILE1</v>
-      </c>
-      <c r="J55" t="str">
-        <f t="shared" si="4"/>
-        <v>`</v>
-      </c>
-      <c r="K55" s="15" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>230</v>
-      </c>
-      <c r="C56" t="s">
-        <v>149</v>
-      </c>
-      <c r="D56" s="15" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E56" t="str">
-        <f t="shared" si="7"/>
-        <v>TILE2='¬'</v>
-      </c>
-      <c r="H56" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="I56" t="str">
-        <f t="shared" si="3"/>
-        <v>TILE2</v>
-      </c>
-      <c r="J56" t="str">
-        <f t="shared" si="4"/>
-        <v>¬</v>
-      </c>
-      <c r="K56" s="15" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>231</v>
-      </c>
-      <c r="C57" t="s">
-        <v>26</v>
-      </c>
-      <c r="D57" s="15" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E57" t="str">
-        <f t="shared" si="7"/>
-        <v>TILE3='.'</v>
-      </c>
-      <c r="H57" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="I57" t="str">
-        <f t="shared" si="3"/>
-        <v>TILE3</v>
-      </c>
-      <c r="J57" t="str">
-        <f t="shared" si="4"/>
-        <v>.</v>
-      </c>
-      <c r="K57" s="15" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>232</v>
-      </c>
-      <c r="C58" t="s">
-        <v>25</v>
-      </c>
-      <c r="D58" s="15" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E58" t="str">
-        <f t="shared" si="7"/>
-        <v>TILE4='~'</v>
-      </c>
-      <c r="H58" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="I58" t="str">
-        <f t="shared" si="3"/>
-        <v>TILE4</v>
-      </c>
-      <c r="J58" t="str">
-        <f t="shared" si="4"/>
-        <v>~</v>
-      </c>
-      <c r="K58" s="15" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>233</v>
-      </c>
-      <c r="C59" t="s">
-        <v>59</v>
-      </c>
-      <c r="D59" s="15" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E59" t="str">
-        <f t="shared" si="7"/>
-        <v>TRAP1='^'</v>
-      </c>
-      <c r="H59" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="I59" t="str">
-        <f t="shared" si="3"/>
-        <v>TRAP1</v>
-      </c>
-      <c r="J59" t="str">
-        <f t="shared" si="4"/>
-        <v>^</v>
-      </c>
-      <c r="K59" s="15" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>234</v>
-      </c>
-      <c r="C60" t="s">
-        <v>60</v>
-      </c>
-      <c r="D60" s="15" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E60" t="str">
-        <f t="shared" si="7"/>
-        <v>TRAP2='&amp;'</v>
-      </c>
-      <c r="H60" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="I60" t="str">
-        <f t="shared" si="3"/>
-        <v>TRAP2</v>
-      </c>
-      <c r="J60" t="str">
-        <f t="shared" si="4"/>
-        <v>&amp;</v>
-      </c>
-      <c r="K60" s="15" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>235</v>
-      </c>
-      <c r="C61" t="s">
-        <v>34</v>
-      </c>
-      <c r="D61" s="15" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E61" t="str">
-        <f t="shared" si="7"/>
-        <v>TRAP3='['</v>
-      </c>
-      <c r="H61" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="I61" t="str">
-        <f t="shared" si="3"/>
-        <v>TRAP3</v>
-      </c>
-      <c r="J61" t="str">
-        <f t="shared" si="4"/>
-        <v>[</v>
-      </c>
-      <c r="K61" s="15" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>236</v>
-      </c>
-      <c r="C62" t="s">
-        <v>61</v>
-      </c>
-      <c r="D62" s="15" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E62" t="str">
-        <f t="shared" si="7"/>
-        <v>TREASURE='*'</v>
-      </c>
-      <c r="H62" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="I62" t="str">
-        <f t="shared" si="3"/>
-        <v>TREASURE</v>
-      </c>
-      <c r="J62" t="str">
-        <f t="shared" si="4"/>
-        <v>*</v>
-      </c>
-      <c r="K62" s="15" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>237</v>
-      </c>
-      <c r="C63" t="s">
-        <v>24</v>
-      </c>
-      <c r="D63" s="15" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E63" t="str">
-        <f t="shared" si="7"/>
-        <v>TREASURE_CHEST='j'</v>
-      </c>
-      <c r="H63" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="I63" t="str">
-        <f t="shared" si="3"/>
-        <v>TREASURE_CHEST</v>
-      </c>
-      <c r="J63" t="str">
-        <f t="shared" si="4"/>
-        <v>j</v>
-      </c>
-      <c r="K63" s="15" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>238</v>
-      </c>
-      <c r="C64" t="s">
-        <v>62</v>
-      </c>
-      <c r="D64" s="15" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E64" t="str">
-        <f t="shared" si="7"/>
-        <v>TREASURE10='x'</v>
-      </c>
-      <c r="H64" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="I64" t="str">
-        <f t="shared" si="3"/>
-        <v>TREASURE10</v>
-      </c>
-      <c r="J64" t="str">
-        <f t="shared" si="4"/>
-        <v>x</v>
-      </c>
-      <c r="K64" s="15" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>239</v>
-      </c>
-      <c r="C65" t="s">
-        <v>63</v>
-      </c>
-      <c r="D65" s="15" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E65" t="str">
-        <f t="shared" si="7"/>
-        <v>TREASURE25='X'</v>
-      </c>
-      <c r="H65" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="I65" t="str">
-        <f t="shared" si="3"/>
-        <v>TREASURE25</v>
-      </c>
-      <c r="J65" t="str">
-        <f t="shared" si="4"/>
-        <v>X</v>
-      </c>
-      <c r="K65" s="15" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>240</v>
-      </c>
-      <c r="C66" t="s">
-        <v>10</v>
-      </c>
-      <c r="D66" s="15" t="b">
-        <f t="shared" ref="D66:D77" si="8">SUMPRODUCT(--(EXACT(C:C,C66)))&gt;1</f>
-        <v>0</v>
-      </c>
-      <c r="E66" t="str">
-        <f t="shared" ref="E66:E77" si="9">B66&amp;"='"&amp;C66&amp;"'"</f>
-        <v>TREE='T'</v>
-      </c>
-      <c r="H66" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="I66" t="str">
-        <f t="shared" si="3"/>
-        <v>TREE</v>
-      </c>
-      <c r="J66" t="str">
-        <f t="shared" si="4"/>
-        <v>T</v>
-      </c>
-      <c r="K66" s="15" t="b">
-        <f t="shared" ref="K66:K77" si="10">SUMPRODUCT(--(EXACT(J:J,J66)))&gt;1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>241</v>
-      </c>
-      <c r="C67" t="s">
-        <v>64</v>
-      </c>
-      <c r="D67" s="15" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E67" t="str">
-        <f t="shared" si="9"/>
-        <v>TROPHY='G'</v>
-      </c>
-      <c r="H67" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="I67" t="str">
-        <f t="shared" si="3"/>
-        <v>TROPHY</v>
-      </c>
-      <c r="J67" t="str">
-        <f t="shared" si="4"/>
-        <v>G</v>
-      </c>
-      <c r="K67" s="15" t="b">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>242</v>
-      </c>
-      <c r="C68" t="s">
-        <v>5</v>
-      </c>
-      <c r="D68" s="15" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E68" t="str">
-        <f t="shared" si="9"/>
-        <v>UP='+'</v>
-      </c>
-      <c r="H68" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="I68" t="str">
-        <f t="shared" ref="I68:I77" si="11">TRIM(MID($H68,1,FIND("=",$H68)-1))</f>
-        <v>UP</v>
-      </c>
-      <c r="J68" t="str">
-        <f t="shared" ref="J68:J77" si="12">SUBSTITUTE(TRIM(MID($H68,FIND("=",$H68)+1,200)),"'","")</f>
-        <v>+</v>
-      </c>
-      <c r="K68" s="15" t="b">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>243</v>
-      </c>
-      <c r="C69" t="s">
-        <v>2</v>
-      </c>
-      <c r="D69" s="15" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E69" t="str">
-        <f t="shared" si="9"/>
-        <v>WALL=':'</v>
-      </c>
-      <c r="H69" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="I69" t="str">
-        <f t="shared" si="11"/>
-        <v>WALL</v>
-      </c>
-      <c r="J69" t="str">
-        <f t="shared" si="12"/>
-        <v>:</v>
-      </c>
-      <c r="K69" s="15" t="b">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>244</v>
-      </c>
-      <c r="C70" t="s">
-        <v>13</v>
-      </c>
-      <c r="D70" s="15" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E70" t="str">
-        <f t="shared" si="9"/>
-        <v>WALL_BL='('</v>
-      </c>
-      <c r="H70" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="I70" t="str">
-        <f t="shared" si="11"/>
-        <v>WALL_BL</v>
-      </c>
-      <c r="J70" t="str">
-        <f t="shared" si="12"/>
-        <v>(</v>
-      </c>
-      <c r="K70" s="15" t="b">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>245</v>
-      </c>
-      <c r="C71" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71" s="15" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E71" t="str">
-        <f t="shared" si="9"/>
-        <v>WALL_BR=')'</v>
-      </c>
-      <c r="H71" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="I71" t="str">
-        <f t="shared" si="11"/>
-        <v>WALL_BR</v>
-      </c>
-      <c r="J71" t="str">
-        <f t="shared" si="12"/>
-        <v>)</v>
-      </c>
-      <c r="K71" s="15" t="b">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>246</v>
-      </c>
-      <c r="C72" t="s">
-        <v>11</v>
-      </c>
-      <c r="D72" s="15" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E72" t="str">
-        <f t="shared" si="9"/>
-        <v>WALL_TL='/'</v>
-      </c>
-      <c r="H72" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="I72" t="str">
-        <f t="shared" si="11"/>
-        <v>WALL_TL</v>
-      </c>
-      <c r="J72" t="str">
-        <f t="shared" si="12"/>
-        <v>/</v>
-      </c>
-      <c r="K72" s="15" t="b">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>247</v>
-      </c>
-      <c r="C73" t="s">
-        <v>65</v>
-      </c>
-      <c r="D73" s="15" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E73" t="str">
-        <f t="shared" si="9"/>
-        <v>WALL_TR='\\'</v>
-      </c>
-      <c r="H73" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="I73" t="str">
-        <f t="shared" si="11"/>
-        <v>WALL_TR</v>
-      </c>
-      <c r="J73" t="str">
-        <f t="shared" si="12"/>
-        <v>\\</v>
-      </c>
-      <c r="K73" s="15" t="b">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>248</v>
-      </c>
-      <c r="C74" t="s">
-        <v>30</v>
-      </c>
-      <c r="D74" s="15" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E74" t="str">
-        <f t="shared" si="9"/>
-        <v>WALL2='w'</v>
-      </c>
-      <c r="H74" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="I74" t="str">
-        <f t="shared" si="11"/>
-        <v>WALL2</v>
-      </c>
-      <c r="J74" t="str">
-        <f t="shared" si="12"/>
-        <v>w</v>
-      </c>
-      <c r="K74" s="15" t="b">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
-        <v>249</v>
-      </c>
-      <c r="C75" t="s">
-        <v>250</v>
-      </c>
-      <c r="D75" s="15" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E75" t="str">
-        <f t="shared" si="9"/>
-        <v>WALL3='e'</v>
-      </c>
-      <c r="H75" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="I75" t="str">
-        <f t="shared" si="11"/>
-        <v>WALL3</v>
-      </c>
-      <c r="J75" t="str">
-        <f t="shared" si="12"/>
-        <v>e</v>
-      </c>
-      <c r="K75" s="15" t="b">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>251</v>
-      </c>
-      <c r="C76" t="s">
-        <v>29</v>
-      </c>
-      <c r="D76" s="15" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E76" t="str">
-        <f t="shared" si="9"/>
-        <v>WEAPON='|'</v>
-      </c>
-      <c r="H76" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="I76" t="str">
-        <f t="shared" si="11"/>
-        <v>WEAPON</v>
-      </c>
-      <c r="J76" t="str">
-        <f t="shared" si="12"/>
-        <v>|</v>
-      </c>
-      <c r="K76" s="15" t="b">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>252</v>
-      </c>
-      <c r="C77" t="s">
-        <v>21</v>
-      </c>
-      <c r="D77" s="15" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E77" t="str">
-        <f t="shared" si="9"/>
-        <v>WEST='W'</v>
-      </c>
-      <c r="H77" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="I77" t="str">
-        <f t="shared" si="11"/>
-        <v>WEST</v>
-      </c>
-      <c r="J77" t="str">
-        <f t="shared" si="12"/>
-        <v>W</v>
-      </c>
-      <c r="K77" s="15" t="b">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="C1:C65"/>
-  <sortState ref="B2:D67">
-    <sortCondition ref="B2:B67"/>
-  </sortState>
-  <conditionalFormatting sqref="D1:D31 D33:D1048576">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K31 K33:K77">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K32">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1:Z20"/>
+      <selection activeCell="AA20" sqref="AA1:AA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22075,7 +19717,7 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>6</v>
+        <v>266</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>6</v>
@@ -22145,11 +19787,11 @@
       </c>
       <c r="AA1" t="str">
         <f>CONCATENATE(A1,B1,C1,D1,E1,F1,G1,H1,I1,J1,K1,L1,M1,N1,O1,P1,Q1,R1,S1,T1,U1,V1,W1,X1,Y1)</f>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">b                   </v>
       </c>
       <c r="AB1" t="str">
         <f>"'"&amp;AA1&amp;"',"</f>
-        <v>'                    ',</v>
+        <v>'b                   ',</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
@@ -22524,7 +20166,7 @@
         <v>6</v>
       </c>
       <c r="S6" s="12" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="T6" s="12" t="s">
         <v>6</v>
@@ -22540,11 +20182,11 @@
       </c>
       <c r="AA6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">                  P </v>
       </c>
       <c r="AB6" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>'                  P ',</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -22789,7 +20431,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>6</v>
@@ -22856,11 +20498,11 @@
       </c>
       <c r="AA10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve"> P                  </v>
       </c>
       <c r="AB10" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>' P                  ',</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -23156,7 +20798,7 @@
         <v>6</v>
       </c>
       <c r="S14" s="12" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="T14" s="12" t="s">
         <v>6</v>
@@ -23172,11 +20814,11 @@
       </c>
       <c r="AA14" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">                  P </v>
       </c>
       <c r="AB14" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>'                  P ',</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
@@ -23609,7 +21251,7 @@
         <v>6</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>6</v>
+        <v>266</v>
       </c>
       <c r="M20" s="12" t="s">
         <v>6</v>
@@ -23646,11 +21288,11 @@
       </c>
       <c r="AA20" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">           b        </v>
       </c>
       <c r="AB20" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>'           b        ',</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
@@ -23896,12 +21538,4294 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="47" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="46" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K77"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="16"/>
+    <col min="4" max="4" width="9.140625" style="14"/>
+    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="15" t="b">
+        <f t="shared" ref="D2:D33" si="0">SUMPRODUCT(--(EXACT(C:C,C2)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E34" si="1">B2&amp;"='"&amp;C2&amp;"'"</f>
+        <v>BANG='$'</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" t="str">
+        <f>TRIM(MID($H2,1,FIND("=",$H2)-1))</f>
+        <v>BANG</v>
+      </c>
+      <c r="J2" t="str">
+        <f>SUBSTITUTE(TRIM(MID($H2,FIND("=",$H2)+1,200)),"'","")</f>
+        <v>$</v>
+      </c>
+      <c r="K2" s="15" t="b">
+        <f t="shared" ref="K2:K33" si="2">SUMPRODUCT(--(EXACT(J:J,J2)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="1"/>
+        <v>BOMB='q'</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I67" si="3">TRIM(MID($H3,1,FIND("=",$H3)-1))</f>
+        <v>BOMB</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J67" si="4">SUBSTITUTE(TRIM(MID($H3,FIND("=",$H3)+1,200)),"'","")</f>
+        <v>q</v>
+      </c>
+      <c r="K3" s="15" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="1"/>
+        <v>BOMB_LIT='Q'</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="3"/>
+        <v>BOMB_LIT</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="4"/>
+        <v>Q</v>
+      </c>
+      <c r="K4" s="15" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="1"/>
+        <v>BOSS_DOOR='F'</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="3"/>
+        <v>BOSS_DOOR</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="K5" s="15" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D6" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="1"/>
+        <v>BOSS_DOOR_OPEN='f'</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="3"/>
+        <v>BOSS_DOOR_OPEN</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="4"/>
+        <v>f</v>
+      </c>
+      <c r="K6" s="15" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="1"/>
+        <v>BRAZIER='B'</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="3"/>
+        <v>BRAZIER</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="K7" s="15" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="1"/>
+        <v>DECORATION1='z'</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="3"/>
+        <v>DECORATION1</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="4"/>
+        <v>z</v>
+      </c>
+      <c r="K8" s="15" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="1"/>
+        <v>DECORATION2='Z'</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="3"/>
+        <v>DECORATION2</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="4"/>
+        <v>Z</v>
+      </c>
+      <c r="K9" s="15" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="1"/>
+        <v>DOOR='D'</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="3"/>
+        <v>DOOR</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="4"/>
+        <v>D</v>
+      </c>
+      <c r="K10" s="15" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="1"/>
+        <v>DOOR_OPEN='d'</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="3"/>
+        <v>DOOR_OPEN</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="4"/>
+        <v>d</v>
+      </c>
+      <c r="K11" s="15" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="1"/>
+        <v>DOT1='!'</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="3"/>
+        <v>DOT1</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="4"/>
+        <v>!</v>
+      </c>
+      <c r="K12" s="15" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>177</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="1"/>
+        <v>DOT2='£'</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="3"/>
+        <v>DOT2</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="4"/>
+        <v>£</v>
+      </c>
+      <c r="K13" s="15" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="1"/>
+        <v>DOWN='-'</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="3"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="K14" s="15" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>179</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="1"/>
+        <v>EAST='E'</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="3"/>
+        <v>EAST</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="4"/>
+        <v>E</v>
+      </c>
+      <c r="K15" s="15" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>180</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="1"/>
+        <v>EMPTY=' '</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="3"/>
+        <v>EMPTY</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K16" s="15" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>181</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="1"/>
+        <v>EXIT_KEY='%'</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="3"/>
+        <v>EXIT_KEY</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="4"/>
+        <v>%</v>
+      </c>
+      <c r="K17" s="15" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="1"/>
+        <v>HEART='HP'</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="3"/>
+        <v>HEART</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="4"/>
+        <v>HP</v>
+      </c>
+      <c r="K18" s="15" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C19" t="s">
+        <v>184</v>
+      </c>
+      <c r="D19" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="1"/>
+        <v>REPLENISH='"H"'</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="3"/>
+        <v>REPLENISH</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="4"/>
+        <v>"H"</v>
+      </c>
+      <c r="K19" s="15" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>185</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="1"/>
+        <v>KEY='?'</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="3"/>
+        <v>KEY</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="4"/>
+        <v>?</v>
+      </c>
+      <c r="K20" s="15" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>186</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="1"/>
+        <v>MAP='M'</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="3"/>
+        <v>MAP</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="4"/>
+        <v>M</v>
+      </c>
+      <c r="K21" s="15" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>187</v>
+      </c>
+      <c r="C22" t="s">
+        <v>188</v>
+      </c>
+      <c r="D22" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="1"/>
+        <v>MONSTER1='1'</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="3"/>
+        <v>MONSTER1</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K22" s="15" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>189</v>
+      </c>
+      <c r="C23" t="s">
+        <v>190</v>
+      </c>
+      <c r="D23" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="1"/>
+        <v>MONSTER2='2'</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="3"/>
+        <v>MONSTER2</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="K23" s="15" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>191</v>
+      </c>
+      <c r="C24" t="s">
+        <v>192</v>
+      </c>
+      <c r="D24" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="1"/>
+        <v>MONSTER3='3'</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="3"/>
+        <v>MONSTER3</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="K24" s="15" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>193</v>
+      </c>
+      <c r="C25" t="s">
+        <v>194</v>
+      </c>
+      <c r="D25" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="1"/>
+        <v>BOSS='4'</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="3"/>
+        <v>BOSS</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="K25" s="15" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>195</v>
+      </c>
+      <c r="C26" t="s">
+        <v>196</v>
+      </c>
+      <c r="D26" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="1"/>
+        <v>BOSS_KEY='K'</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="3"/>
+        <v>BOSS_KEY</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="4"/>
+        <v>K</v>
+      </c>
+      <c r="K26" s="15" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>197</v>
+      </c>
+      <c r="C27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="1"/>
+        <v>NEXT_LEVEL='L'</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="3"/>
+        <v>NEXT_LEVEL</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="4"/>
+        <v>L</v>
+      </c>
+      <c r="K27" s="15" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>198</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="1"/>
+        <v>NORTH='N'</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="3"/>
+        <v>NORTH</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="4"/>
+        <v>N</v>
+      </c>
+      <c r="K28" s="15" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>199</v>
+      </c>
+      <c r="C29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="1"/>
+        <v>PLAYER='P'</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="3"/>
+        <v>PLAYER</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="4"/>
+        <v>P</v>
+      </c>
+      <c r="K29" s="15" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>200</v>
+      </c>
+      <c r="C30" t="s">
+        <v>201</v>
+      </c>
+      <c r="D30" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="1"/>
+        <v>PLAYER_ARMOUR='p'</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="3"/>
+        <v>PLAYER_ARMOUR</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="4"/>
+        <v>p</v>
+      </c>
+      <c r="K30" s="15" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>202</v>
+      </c>
+      <c r="C31" t="s">
+        <v>203</v>
+      </c>
+      <c r="D31" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="1"/>
+        <v>PLAYER_GOLD='g'</v>
+      </c>
+      <c r="H31" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="3"/>
+        <v>PLAYER_GOLD</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="4"/>
+        <v>g</v>
+      </c>
+      <c r="K31" s="15" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>254</v>
+      </c>
+      <c r="C32" t="s">
+        <v>253</v>
+      </c>
+      <c r="D32" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E32" t="str">
+        <f>B32&amp;"='"&amp;C32&amp;"'"</f>
+        <v>PLAYER_THIEF='a'</v>
+      </c>
+      <c r="H32" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="3"/>
+        <v>PLAYER_GOLD</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="4"/>
+        <v>g</v>
+      </c>
+      <c r="K32" s="15" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>204</v>
+      </c>
+      <c r="C33" t="s">
+        <v>205</v>
+      </c>
+      <c r="D33" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="1"/>
+        <v>PLAYER_SPIKE='A'</v>
+      </c>
+      <c r="H33" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="3"/>
+        <v>PLAYER_SPIKE</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="K33" s="15" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>206</v>
+      </c>
+      <c r="C34" t="s">
+        <v>207</v>
+      </c>
+      <c r="D34" s="15" t="b">
+        <f t="shared" ref="D34:D65" si="5">SUMPRODUCT(--(EXACT(C:C,C34)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="1"/>
+        <v>NPC1='Y'</v>
+      </c>
+      <c r="H34" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="3"/>
+        <v>NPC1</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="4"/>
+        <v>Y</v>
+      </c>
+      <c r="K34" s="15" t="b">
+        <f t="shared" ref="K34:K65" si="6">SUMPRODUCT(--(EXACT(J:J,J34)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>208</v>
+      </c>
+      <c r="C35" t="s">
+        <v>209</v>
+      </c>
+      <c r="D35" s="15" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" ref="E35:E65" si="7">B35&amp;"='"&amp;C35&amp;"'"</f>
+        <v>NPC2='y'</v>
+      </c>
+      <c r="H35" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="3"/>
+        <v>NPC2</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="4"/>
+        <v>y</v>
+      </c>
+      <c r="K35" s="15" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>210</v>
+      </c>
+      <c r="C36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="15" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="7"/>
+        <v>PREVIOUS_LEVEL='l'</v>
+      </c>
+      <c r="H36" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="3"/>
+        <v>PREVIOUS_LEVEL</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="4"/>
+        <v>l</v>
+      </c>
+      <c r="K36" s="15" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>211</v>
+      </c>
+      <c r="C37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" s="15" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="7"/>
+        <v>RED_POTION='R'</v>
+      </c>
+      <c r="H37" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="3"/>
+        <v>RED_POTION</v>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" si="4"/>
+        <v>R</v>
+      </c>
+      <c r="K37" s="15" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>212</v>
+      </c>
+      <c r="C38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="15" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="7"/>
+        <v>RUNE='u'</v>
+      </c>
+      <c r="H38" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="3"/>
+        <v>RUNE</v>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" si="4"/>
+        <v>u</v>
+      </c>
+      <c r="K38" s="15" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>213</v>
+      </c>
+      <c r="C39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="15" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="7"/>
+        <v>RUNE1='R1'</v>
+      </c>
+      <c r="H39" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="3"/>
+        <v>RUNE1</v>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" si="4"/>
+        <v>R1</v>
+      </c>
+      <c r="K39" s="15" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>214</v>
+      </c>
+      <c r="C40" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" s="15" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="7"/>
+        <v>RUNE2='R2'</v>
+      </c>
+      <c r="H40" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="3"/>
+        <v>RUNE2</v>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" si="4"/>
+        <v>R2</v>
+      </c>
+      <c r="K40" s="15" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>215</v>
+      </c>
+      <c r="C41" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" s="15" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="7"/>
+        <v>RUNE3='R3'</v>
+      </c>
+      <c r="H41" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="3"/>
+        <v>RUNE3</v>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" si="4"/>
+        <v>R3</v>
+      </c>
+      <c r="K41" s="15" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>216</v>
+      </c>
+      <c r="C42" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" s="15" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="7"/>
+        <v>RUNE4='R4'</v>
+      </c>
+      <c r="H42" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="3"/>
+        <v>RUNE4</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" si="4"/>
+        <v>R4</v>
+      </c>
+      <c r="K42" s="15" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>217</v>
+      </c>
+      <c r="C43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" s="15" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="7"/>
+        <v>RUNE5='R5'</v>
+      </c>
+      <c r="H43" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="3"/>
+        <v>RUNE5</v>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" si="4"/>
+        <v>R5</v>
+      </c>
+      <c r="K43" s="15" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>218</v>
+      </c>
+      <c r="C44" t="s">
+        <v>219</v>
+      </c>
+      <c r="D44" s="15" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="7"/>
+        <v>SAFETY='8'</v>
+      </c>
+      <c r="H44" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="3"/>
+        <v>SAFETY</v>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="K44" s="15" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>220</v>
+      </c>
+      <c r="C45" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="15" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="7"/>
+        <v>SECRET_TREASURE='J'</v>
+      </c>
+      <c r="H45" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="3"/>
+        <v>SECRET_TREASURE</v>
+      </c>
+      <c r="J45" t="str">
+        <f t="shared" si="4"/>
+        <v>J</v>
+      </c>
+      <c r="K45" s="15" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>221</v>
+      </c>
+      <c r="C46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="15" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="7"/>
+        <v>SECRET_WALL=';'</v>
+      </c>
+      <c r="H46" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="3"/>
+        <v>SECRET_WALL</v>
+      </c>
+      <c r="J46" t="str">
+        <f t="shared" si="4"/>
+        <v>;</v>
+      </c>
+      <c r="K46" s="15" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>222</v>
+      </c>
+      <c r="C47" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" s="15" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="7"/>
+        <v>SHIELD='O'</v>
+      </c>
+      <c r="H47" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="3"/>
+        <v>SHIELD</v>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" si="4"/>
+        <v>O</v>
+      </c>
+      <c r="K47" s="15" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="15" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="7"/>
+        <v>SHOP='s'</v>
+      </c>
+      <c r="H48" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="3"/>
+        <v>SHOP</v>
+      </c>
+      <c r="J48" t="str">
+        <f t="shared" si="4"/>
+        <v>s</v>
+      </c>
+      <c r="K48" s="15" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>223</v>
+      </c>
+      <c r="C49" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" s="15" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="7"/>
+        <v>SHOP_KEEPER='SHOP'</v>
+      </c>
+      <c r="H49" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" si="3"/>
+        <v>SHOP_KEEPER</v>
+      </c>
+      <c r="J49" t="str">
+        <f t="shared" si="4"/>
+        <v>SHOP</v>
+      </c>
+      <c r="K49" s="15" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>224</v>
+      </c>
+      <c r="C50" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="15" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="7"/>
+        <v>SOUTH='S'</v>
+      </c>
+      <c r="H50" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" si="3"/>
+        <v>SOUTH</v>
+      </c>
+      <c r="J50" t="str">
+        <f t="shared" si="4"/>
+        <v>S</v>
+      </c>
+      <c r="K50" s="15" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>225</v>
+      </c>
+      <c r="C51" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="15" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="7"/>
+        <v>START_POSITION='='</v>
+      </c>
+      <c r="H51" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="I51" t="str">
+        <f t="shared" si="3"/>
+        <v>START_POSITION</v>
+      </c>
+      <c r="J51" t="str">
+        <f t="shared" si="4"/>
+        <v>=</v>
+      </c>
+      <c r="K51" s="15" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>226</v>
+      </c>
+      <c r="C52" t="s">
+        <v>56</v>
+      </c>
+      <c r="D52" s="15" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="7"/>
+        <v>SWITCH=','</v>
+      </c>
+      <c r="H52" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="I52" t="str">
+        <f t="shared" si="3"/>
+        <v>SWITCH</v>
+      </c>
+      <c r="J52" t="str">
+        <f t="shared" si="4"/>
+        <v>,</v>
+      </c>
+      <c r="K52" s="15" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>227</v>
+      </c>
+      <c r="C53" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53" s="15" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="7"/>
+        <v>SWITCH_LIT='&lt;'</v>
+      </c>
+      <c r="H53" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="I53" t="str">
+        <f t="shared" si="3"/>
+        <v>SWITCH_LIT</v>
+      </c>
+      <c r="J53" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;</v>
+      </c>
+      <c r="K53" s="15" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>228</v>
+      </c>
+      <c r="C54" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54" s="15" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="7"/>
+        <v>SWITCH_TILE='_'</v>
+      </c>
+      <c r="H54" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="I54" t="str">
+        <f t="shared" si="3"/>
+        <v>SWITCH_TILE</v>
+      </c>
+      <c r="J54" t="str">
+        <f t="shared" si="4"/>
+        <v>_</v>
+      </c>
+      <c r="K54" s="15" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>229</v>
+      </c>
+      <c r="C55" t="s">
+        <v>129</v>
+      </c>
+      <c r="D55" s="15" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="7"/>
+        <v>TILE1='`'</v>
+      </c>
+      <c r="H55" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="I55" t="str">
+        <f t="shared" si="3"/>
+        <v>TILE1</v>
+      </c>
+      <c r="J55" t="str">
+        <f t="shared" si="4"/>
+        <v>`</v>
+      </c>
+      <c r="K55" s="15" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>230</v>
+      </c>
+      <c r="C56" t="s">
+        <v>149</v>
+      </c>
+      <c r="D56" s="15" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="7"/>
+        <v>TILE2='¬'</v>
+      </c>
+      <c r="H56" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="I56" t="str">
+        <f t="shared" si="3"/>
+        <v>TILE2</v>
+      </c>
+      <c r="J56" t="str">
+        <f t="shared" si="4"/>
+        <v>¬</v>
+      </c>
+      <c r="K56" s="15" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>231</v>
+      </c>
+      <c r="C57" t="s">
+        <v>26</v>
+      </c>
+      <c r="D57" s="15" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="7"/>
+        <v>TILE3='.'</v>
+      </c>
+      <c r="H57" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="I57" t="str">
+        <f t="shared" si="3"/>
+        <v>TILE3</v>
+      </c>
+      <c r="J57" t="str">
+        <f t="shared" si="4"/>
+        <v>.</v>
+      </c>
+      <c r="K57" s="15" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>232</v>
+      </c>
+      <c r="C58" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" s="15" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="7"/>
+        <v>TILE4='~'</v>
+      </c>
+      <c r="H58" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="I58" t="str">
+        <f t="shared" si="3"/>
+        <v>TILE4</v>
+      </c>
+      <c r="J58" t="str">
+        <f t="shared" si="4"/>
+        <v>~</v>
+      </c>
+      <c r="K58" s="15" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>233</v>
+      </c>
+      <c r="C59" t="s">
+        <v>59</v>
+      </c>
+      <c r="D59" s="15" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="7"/>
+        <v>TRAP1='^'</v>
+      </c>
+      <c r="H59" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="I59" t="str">
+        <f t="shared" si="3"/>
+        <v>TRAP1</v>
+      </c>
+      <c r="J59" t="str">
+        <f t="shared" si="4"/>
+        <v>^</v>
+      </c>
+      <c r="K59" s="15" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>234</v>
+      </c>
+      <c r="C60" t="s">
+        <v>60</v>
+      </c>
+      <c r="D60" s="15" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="7"/>
+        <v>TRAP2='&amp;'</v>
+      </c>
+      <c r="H60" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="I60" t="str">
+        <f t="shared" si="3"/>
+        <v>TRAP2</v>
+      </c>
+      <c r="J60" t="str">
+        <f t="shared" si="4"/>
+        <v>&amp;</v>
+      </c>
+      <c r="K60" s="15" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>235</v>
+      </c>
+      <c r="C61" t="s">
+        <v>34</v>
+      </c>
+      <c r="D61" s="15" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="7"/>
+        <v>TRAP3='['</v>
+      </c>
+      <c r="H61" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="I61" t="str">
+        <f t="shared" si="3"/>
+        <v>TRAP3</v>
+      </c>
+      <c r="J61" t="str">
+        <f t="shared" si="4"/>
+        <v>[</v>
+      </c>
+      <c r="K61" s="15" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>236</v>
+      </c>
+      <c r="C62" t="s">
+        <v>61</v>
+      </c>
+      <c r="D62" s="15" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="7"/>
+        <v>TREASURE='*'</v>
+      </c>
+      <c r="H62" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="I62" t="str">
+        <f t="shared" si="3"/>
+        <v>TREASURE</v>
+      </c>
+      <c r="J62" t="str">
+        <f t="shared" si="4"/>
+        <v>*</v>
+      </c>
+      <c r="K62" s="15" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>237</v>
+      </c>
+      <c r="C63" t="s">
+        <v>24</v>
+      </c>
+      <c r="D63" s="15" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="7"/>
+        <v>TREASURE_CHEST='j'</v>
+      </c>
+      <c r="H63" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="I63" t="str">
+        <f t="shared" si="3"/>
+        <v>TREASURE_CHEST</v>
+      </c>
+      <c r="J63" t="str">
+        <f t="shared" si="4"/>
+        <v>j</v>
+      </c>
+      <c r="K63" s="15" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>238</v>
+      </c>
+      <c r="C64" t="s">
+        <v>62</v>
+      </c>
+      <c r="D64" s="15" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="7"/>
+        <v>TREASURE10='x'</v>
+      </c>
+      <c r="H64" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="I64" t="str">
+        <f t="shared" si="3"/>
+        <v>TREASURE10</v>
+      </c>
+      <c r="J64" t="str">
+        <f t="shared" si="4"/>
+        <v>x</v>
+      </c>
+      <c r="K64" s="15" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>239</v>
+      </c>
+      <c r="C65" t="s">
+        <v>63</v>
+      </c>
+      <c r="D65" s="15" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="7"/>
+        <v>TREASURE25='X'</v>
+      </c>
+      <c r="H65" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="I65" t="str">
+        <f t="shared" si="3"/>
+        <v>TREASURE25</v>
+      </c>
+      <c r="J65" t="str">
+        <f t="shared" si="4"/>
+        <v>X</v>
+      </c>
+      <c r="K65" s="15" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>240</v>
+      </c>
+      <c r="C66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" s="15" t="b">
+        <f t="shared" ref="D66:D77" si="8">SUMPRODUCT(--(EXACT(C:C,C66)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" ref="E66:E77" si="9">B66&amp;"='"&amp;C66&amp;"'"</f>
+        <v>TREE='T'</v>
+      </c>
+      <c r="H66" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="I66" t="str">
+        <f t="shared" si="3"/>
+        <v>TREE</v>
+      </c>
+      <c r="J66" t="str">
+        <f t="shared" si="4"/>
+        <v>T</v>
+      </c>
+      <c r="K66" s="15" t="b">
+        <f t="shared" ref="K66:K77" si="10">SUMPRODUCT(--(EXACT(J:J,J66)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>241</v>
+      </c>
+      <c r="C67" t="s">
+        <v>64</v>
+      </c>
+      <c r="D67" s="15" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" si="9"/>
+        <v>TROPHY='G'</v>
+      </c>
+      <c r="H67" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="I67" t="str">
+        <f t="shared" si="3"/>
+        <v>TROPHY</v>
+      </c>
+      <c r="J67" t="str">
+        <f t="shared" si="4"/>
+        <v>G</v>
+      </c>
+      <c r="K67" s="15" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>242</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="15" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" si="9"/>
+        <v>UP='+'</v>
+      </c>
+      <c r="H68" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="I68" t="str">
+        <f t="shared" ref="I68:I77" si="11">TRIM(MID($H68,1,FIND("=",$H68)-1))</f>
+        <v>UP</v>
+      </c>
+      <c r="J68" t="str">
+        <f t="shared" ref="J68:J77" si="12">SUBSTITUTE(TRIM(MID($H68,FIND("=",$H68)+1,200)),"'","")</f>
+        <v>+</v>
+      </c>
+      <c r="K68" s="15" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>243</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" s="15" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="9"/>
+        <v>WALL=':'</v>
+      </c>
+      <c r="H69" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="I69" t="str">
+        <f t="shared" si="11"/>
+        <v>WALL</v>
+      </c>
+      <c r="J69" t="str">
+        <f t="shared" si="12"/>
+        <v>:</v>
+      </c>
+      <c r="K69" s="15" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>244</v>
+      </c>
+      <c r="C70" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="15" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="9"/>
+        <v>WALL_BL='('</v>
+      </c>
+      <c r="H70" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="I70" t="str">
+        <f t="shared" si="11"/>
+        <v>WALL_BL</v>
+      </c>
+      <c r="J70" t="str">
+        <f t="shared" si="12"/>
+        <v>(</v>
+      </c>
+      <c r="K70" s="15" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>245</v>
+      </c>
+      <c r="C71" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="15" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="9"/>
+        <v>WALL_BR=')'</v>
+      </c>
+      <c r="H71" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="I71" t="str">
+        <f t="shared" si="11"/>
+        <v>WALL_BR</v>
+      </c>
+      <c r="J71" t="str">
+        <f t="shared" si="12"/>
+        <v>)</v>
+      </c>
+      <c r="K71" s="15" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>246</v>
+      </c>
+      <c r="C72" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" s="15" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="9"/>
+        <v>WALL_TL='/'</v>
+      </c>
+      <c r="H72" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="I72" t="str">
+        <f t="shared" si="11"/>
+        <v>WALL_TL</v>
+      </c>
+      <c r="J72" t="str">
+        <f t="shared" si="12"/>
+        <v>/</v>
+      </c>
+      <c r="K72" s="15" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>247</v>
+      </c>
+      <c r="C73" t="s">
+        <v>65</v>
+      </c>
+      <c r="D73" s="15" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="9"/>
+        <v>WALL_TR='\\'</v>
+      </c>
+      <c r="H73" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="I73" t="str">
+        <f t="shared" si="11"/>
+        <v>WALL_TR</v>
+      </c>
+      <c r="J73" t="str">
+        <f t="shared" si="12"/>
+        <v>\\</v>
+      </c>
+      <c r="K73" s="15" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>248</v>
+      </c>
+      <c r="C74" t="s">
+        <v>30</v>
+      </c>
+      <c r="D74" s="15" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="9"/>
+        <v>WALL2='w'</v>
+      </c>
+      <c r="H74" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="I74" t="str">
+        <f t="shared" si="11"/>
+        <v>WALL2</v>
+      </c>
+      <c r="J74" t="str">
+        <f t="shared" si="12"/>
+        <v>w</v>
+      </c>
+      <c r="K74" s="15" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>249</v>
+      </c>
+      <c r="C75" t="s">
+        <v>250</v>
+      </c>
+      <c r="D75" s="15" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" si="9"/>
+        <v>WALL3='e'</v>
+      </c>
+      <c r="H75" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="I75" t="str">
+        <f t="shared" si="11"/>
+        <v>WALL3</v>
+      </c>
+      <c r="J75" t="str">
+        <f t="shared" si="12"/>
+        <v>e</v>
+      </c>
+      <c r="K75" s="15" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>251</v>
+      </c>
+      <c r="C76" t="s">
+        <v>29</v>
+      </c>
+      <c r="D76" s="15" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" si="9"/>
+        <v>WEAPON='|'</v>
+      </c>
+      <c r="H76" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="I76" t="str">
+        <f t="shared" si="11"/>
+        <v>WEAPON</v>
+      </c>
+      <c r="J76" t="str">
+        <f t="shared" si="12"/>
+        <v>|</v>
+      </c>
+      <c r="K76" s="15" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>252</v>
+      </c>
+      <c r="C77" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77" s="15" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" si="9"/>
+        <v>WEST='W'</v>
+      </c>
+      <c r="H77" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="I77" t="str">
+        <f t="shared" si="11"/>
+        <v>WEST</v>
+      </c>
+      <c r="J77" t="str">
+        <f t="shared" si="12"/>
+        <v>W</v>
+      </c>
+      <c r="K77" s="15" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="C1:C65"/>
+  <sortState ref="B2:D67">
+    <sortCondition ref="B2:B67"/>
+  </sortState>
+  <conditionalFormatting sqref="D1:D31 D33:D1048576">
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K31 K33:K77">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1:Z20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1">
+        <f>ROW()</f>
+        <v>1</v>
+      </c>
+      <c r="AA1" t="str">
+        <f>CONCATENATE(A1,B1,C1,D1,E1,F1,G1,H1,I1,J1,K1,L1,M1,N1,O1,P1,Q1,R1,S1,T1,U1,V1,W1,X1,Y1)</f>
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="AB1" t="str">
+        <f>"'"&amp;AA1&amp;"',"</f>
+        <v>'                    ',</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+      <c r="AA2" t="str">
+        <f t="shared" ref="AA2:AA25" si="0">CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2,R2,S2,T2,U2,V2,W2,X2,Y2)</f>
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="AB2" t="str">
+        <f t="shared" ref="AB2:AB20" si="1">"'"&amp;AA2&amp;"',"</f>
+        <v>'                    ',</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3">
+        <f>ROW()</f>
+        <v>3</v>
+      </c>
+      <c r="AA3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="AB3" t="str">
+        <f t="shared" si="1"/>
+        <v>'                    ',</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4">
+        <f>ROW()</f>
+        <v>4</v>
+      </c>
+      <c r="AA4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="AB4" t="str">
+        <f t="shared" si="1"/>
+        <v>'                    ',</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5">
+        <f>ROW()</f>
+        <v>5</v>
+      </c>
+      <c r="AA5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="AB5" t="str">
+        <f t="shared" si="1"/>
+        <v>'                    ',</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6">
+        <f>ROW()</f>
+        <v>6</v>
+      </c>
+      <c r="AA6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="AB6" t="str">
+        <f t="shared" si="1"/>
+        <v>'                    ',</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7">
+        <f>ROW()</f>
+        <v>7</v>
+      </c>
+      <c r="AA7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="AB7" t="str">
+        <f t="shared" si="1"/>
+        <v>'                    ',</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8">
+        <f>ROW()</f>
+        <v>8</v>
+      </c>
+      <c r="AA8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="AB8" t="str">
+        <f t="shared" si="1"/>
+        <v>'                    ',</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9">
+        <f>ROW()</f>
+        <v>9</v>
+      </c>
+      <c r="AA9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="AB9" t="str">
+        <f t="shared" si="1"/>
+        <v>'                    ',</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10">
+        <f>ROW()</f>
+        <v>10</v>
+      </c>
+      <c r="AA10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="AB10" t="str">
+        <f t="shared" si="1"/>
+        <v>'                    ',</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11">
+        <f>ROW()</f>
+        <v>11</v>
+      </c>
+      <c r="AA11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="AB11" t="str">
+        <f t="shared" si="1"/>
+        <v>'                    ',</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12">
+        <f>ROW()</f>
+        <v>12</v>
+      </c>
+      <c r="AA12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="AB12" t="str">
+        <f t="shared" si="1"/>
+        <v>'                    ',</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13">
+        <f>ROW()</f>
+        <v>13</v>
+      </c>
+      <c r="AA13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="AB13" t="str">
+        <f t="shared" si="1"/>
+        <v>'                    ',</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14">
+        <f>ROW()</f>
+        <v>14</v>
+      </c>
+      <c r="AA14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="AB14" t="str">
+        <f t="shared" si="1"/>
+        <v>'                    ',</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15">
+        <f>ROW()</f>
+        <v>15</v>
+      </c>
+      <c r="AA15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="AB15" t="str">
+        <f t="shared" si="1"/>
+        <v>'                    ',</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16">
+        <f>ROW()</f>
+        <v>16</v>
+      </c>
+      <c r="AA16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="AB16" t="str">
+        <f t="shared" si="1"/>
+        <v>'                    ',</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17">
+        <f>ROW()</f>
+        <v>17</v>
+      </c>
+      <c r="AA17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="AB17" t="str">
+        <f t="shared" si="1"/>
+        <v>'                    ',</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18">
+        <f>ROW()</f>
+        <v>18</v>
+      </c>
+      <c r="AA18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="AB18" t="str">
+        <f t="shared" si="1"/>
+        <v>'                    ',</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19">
+        <f>ROW()</f>
+        <v>19</v>
+      </c>
+      <c r="AA19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="AB19" t="str">
+        <f t="shared" si="1"/>
+        <v>'                    ',</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N20" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O20" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P20" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q20" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R20" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S20" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T20" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20">
+        <f>ROW()</f>
+        <v>20</v>
+      </c>
+      <c r="AA20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="AB20" t="str">
+        <f t="shared" si="1"/>
+        <v>'                    ',</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <f>COLUMN()</f>
+        <v>1</v>
+      </c>
+      <c r="B21" s="5">
+        <f>COLUMN()</f>
+        <v>2</v>
+      </c>
+      <c r="C21" s="5">
+        <f>COLUMN()</f>
+        <v>3</v>
+      </c>
+      <c r="D21" s="5">
+        <f>COLUMN()</f>
+        <v>4</v>
+      </c>
+      <c r="E21" s="5">
+        <f>COLUMN()</f>
+        <v>5</v>
+      </c>
+      <c r="F21" s="5">
+        <f>COLUMN()</f>
+        <v>6</v>
+      </c>
+      <c r="G21" s="5">
+        <f>COLUMN()</f>
+        <v>7</v>
+      </c>
+      <c r="H21" s="5">
+        <f>COLUMN()</f>
+        <v>8</v>
+      </c>
+      <c r="I21" s="5">
+        <f>COLUMN()</f>
+        <v>9</v>
+      </c>
+      <c r="J21" s="5">
+        <f>COLUMN()</f>
+        <v>10</v>
+      </c>
+      <c r="K21" s="5">
+        <f>COLUMN()</f>
+        <v>11</v>
+      </c>
+      <c r="L21" s="5">
+        <f>COLUMN()</f>
+        <v>12</v>
+      </c>
+      <c r="M21" s="5">
+        <f>COLUMN()</f>
+        <v>13</v>
+      </c>
+      <c r="N21" s="5">
+        <f>COLUMN()</f>
+        <v>14</v>
+      </c>
+      <c r="O21" s="5">
+        <f>COLUMN()</f>
+        <v>15</v>
+      </c>
+      <c r="P21" s="5">
+        <f>COLUMN()</f>
+        <v>16</v>
+      </c>
+      <c r="Q21" s="5">
+        <f>COLUMN()</f>
+        <v>17</v>
+      </c>
+      <c r="R21" s="5">
+        <f>COLUMN()</f>
+        <v>18</v>
+      </c>
+      <c r="S21" s="5">
+        <f>COLUMN()</f>
+        <v>19</v>
+      </c>
+      <c r="T21" s="5">
+        <f>COLUMN()</f>
+        <v>20</v>
+      </c>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="7"/>
+      <c r="AA21" t="str">
+        <f t="shared" si="0"/>
+        <v>1234567891011121314151617181920</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="7"/>
+      <c r="AA22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="7"/>
+      <c r="AA23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="7"/>
+      <c r="AA24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="11"/>
+      <c r="AA25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:Y25">
+    <cfRule type="expression" dxfId="57" priority="2">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:Z25">
+    <cfRule type="cellIs" dxfId="56" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25629,22 +27553,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="45" priority="4">
+    <cfRule type="expression" dxfId="55" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="44" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="43" priority="2">
+    <cfRule type="expression" dxfId="53" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="42" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27370,22 +29294,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20 A19">
-    <cfRule type="expression" dxfId="41" priority="4">
+    <cfRule type="expression" dxfId="51" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20 A19">
-    <cfRule type="cellIs" dxfId="40" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20 A1:T2 A3:A18 B3:T20">
-    <cfRule type="expression" dxfId="39" priority="2">
+    <cfRule type="expression" dxfId="49" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20 A1:T2 A3:A18 B3:T20">
-    <cfRule type="cellIs" dxfId="38" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29117,22 +31041,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="37" priority="4">
+    <cfRule type="expression" dxfId="47" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="36" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="35" priority="2">
+    <cfRule type="expression" dxfId="45" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="34" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30860,22 +32784,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="33" priority="4">
+    <cfRule type="expression" dxfId="43" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="32" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="31" priority="2">
+    <cfRule type="expression" dxfId="41" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="30" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32603,22 +34527,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="29" priority="4">
+    <cfRule type="expression" dxfId="39" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="28" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="27" priority="2">
+    <cfRule type="expression" dxfId="37" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="26" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33491,7 +35415,7 @@
         <v>6</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="I12" s="12" t="s">
         <v>6</v>
@@ -33536,11 +35460,11 @@
       <c r="Y12" s="7"/>
       <c r="AA12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">i                   </v>
+        <v xml:space="preserve">i      !            </v>
       </c>
       <c r="AB12" t="str">
         <f t="shared" si="1"/>
-        <v>'i                   ',</v>
+        <v>'i      !            ',</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -33626,7 +35550,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>6</v>
@@ -33686,11 +35610,11 @@
       <c r="Y14" s="7"/>
       <c r="AA14" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">#                   </v>
+        <v xml:space="preserve"># !                 </v>
       </c>
       <c r="AB14" t="str">
         <f t="shared" si="1"/>
-        <v>'#                   ',</v>
+        <v>'# !                 ',</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
@@ -34346,12 +36270,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="25" priority="2">
+    <cfRule type="expression" dxfId="35" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="24" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36079,12 +38003,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="23" priority="2">
+    <cfRule type="expression" dxfId="33" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="22" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
